--- a/Ford/ford_cnn_condition.xlsx
+++ b/Ford/ford_cnn_condition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2474B00-03C1-494A-838C-F71508EEC853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285609BE-80F4-D345-A69D-416504EC32D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{92CDF8F4-7FB9-8B44-9D52-3B14C4C12847}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
   <si>
     <t>필터수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>평가기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>val 비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,15 +139,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>커널</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,38 +308,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Max train acc : 384_epoch_0.980555534362793
-Max val acc: 384_epoch_0.9778085947036743 
-Min train loss : 366_epoch_0.055750180035829544
-Min val loss: 225_epoch_0.08629283308982849 
-42/42 [==============================] - 0s 3ms/step - loss: 0.0898 - sparse_categorical_accuracy: 0.9689
-test acrr  0.9689394235610962
-test loss  0.08976868540048599 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Max train acc : 377_epoch_0.9760416746139526
-Max val acc: 377_epoch_0.9736477136611938 
-Min train loss : 400_epoch_0.06963152438402176
-Min val loss: 370_epoch_0.09127344936132431 
-42/42 [==============================] - 0s 3ms/step - loss: 0.1000 - sparse_categorical_accuracy: 0.9727
-test acrr  0.9727272987365723
-test loss  0.09999120235443115 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터가 간단해서 필터수가 많을 필요없다?
-복잡해지기만 할뿐이다?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Max train acc : 338_epoch_0.9809027910232544
-Max val acc: 338_epoch_0.9750346541404724 
-Min train loss : 386_epoch_0.054084662348032
-Min val loss: 187_epoch_0.09361780434846878 
-42/42 [==============================] - 0s 3ms/step - loss: 0.0909 - sparse_categorical_accuracy: 0.9720
+    <t>SGD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 398_epoch_0.9854166507720947
+Max val acc: 398_epoch_0.9778085947036743 
+Min train loss : 398_epoch_0.04052061587572098
+Min val loss: 357_epoch_0.0958586111664772 
+42/42 [==============================] - 0s 3ms/step - loss: 0.1105 - sparse_categorical_accuracy: 0.9674
+test acrr  0.967424213886261
+test loss  0.1105249673128128 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 362_epoch_0.910069465637207
+Max val acc: 362_epoch_0.9278779625892639 
+Min train loss : 399_epoch_0.22812311351299286
+Min val loss: 389_epoch_0.22886265814304352 
+42/42 [==============================] - 0s 3ms/step - loss: 0.2287 - sparse_categorical_accuracy: 0.9159
+test acrr  0.9159091114997864
+test loss  0.22870060801506042 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 781_epoch_0.956250011920929
+Max val acc: 781_epoch_0.9597780704498291 
+Min train loss : 783_epoch_0.12878453731536865
+Min val loss: 798_epoch_0.13660308718681335 
+42/42 [==============================] - 0s 3ms/step - loss: 0.1291 - sparse_categorical_accuracy: 0.9583
+test acrr  0.9583333134651184
+test loss  0.1291147917509079 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 1973_epoch_0.9940972328186035
+Max val acc: 1973_epoch_0.9805825352668762 
+Min train loss : 1973_epoch_0.028528738766908646
+Min val loss: 1476_epoch_0.0904889777302742 
+42/42 [==============================] - 0s 3ms/step - loss: 0.0960 - sparse_categorical_accuracy: 0.9667
+test acrr  0.9666666388511658
+test loss  0.09599888324737549 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 369_epoch_0.981249988079071
+Max val acc: 369_epoch_0.9778085947036743 
+Min train loss : 400_epoch_0.06373926252126694
+Min val loss: 288_epoch_0.08642600476741791 
+42/42 [==============================] - 0s 3ms/step - loss: 0.0943 - sparse_categorical_accuracy: 0.9742
+test acrr  0.9742424488067627
+test loss  0.09426118433475494 
+0.9778085947036743 0.08642600476741791 0.9742424488067627 0.09426118433475494 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 298_epoch_0.9785714149475098
+Max val acc: 298_epoch_0.977798342704773 
+Min train loss : 376_epoch_0.05894450098276138
+Min val loss: 342_epoch_0.08513534814119339 
+42/42 [==============================] - 0s 3ms/step - loss: 0.0956 - sparse_categorical_accuracy: 0.9682
+test acrr  0.9681817889213562
+test loss  0.09561493992805481 
+0.977798342704773 0.08513534814119339 0.9681817889213562 0.09561493992805481 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 326_epoch_0.9819444417953491
+Max val acc: 326_epoch_0.9791955351829529 
+Min train loss : 331_epoch_0.05464017763733864
+Min val loss: 356_epoch_0.08741684257984161 
+42/42 [==============================] - 0s 3ms/step - loss: 0.1006 - sparse_categorical_accuracy: 0.9705
+test acrr  0.9704545736312866
+test loss  0.10064556449651718 
+0.9791955351829529 0.08741684257984161 0.9704545736312866 0.10064556449651718 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 393_epoch_0.980555534362793
+Max val acc: 393_epoch_0.9791955351829529 
+Min train loss : 393_epoch_0.05602329969406128
+Min val loss: 380_epoch_0.08161262422800064 
+42/42 [==============================] - 0s 3ms/step - loss: 0.0911 - sparse_categorical_accuracy: 0.9720
 test acrr  0.971969723701477
-test loss  0.09090323746204376 </t>
+test loss  0.0910976380109787 
+0.9791955351829529 0.08161262422800064 0.971969723701477 0.0910976380109787 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 389_epoch_0.9809027910232544
+Max val acc: 389_epoch_0.9778085947036743 
+Min train loss : 389_epoch_0.05585978925228119
+Min val loss: 305_epoch_0.08543970435857773 
+42/42 [==============================] - 0s 3ms/step - loss: 0.0908 - sparse_categorical_accuracy: 0.9705
+test acrr  0.9704545736312866
+test loss  0.09081384539604187 
+0.9778085947036743 0.08543970435857773 0.9704545736312866 0.09081384539604187 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 362_epoch_0.979938268661499
+Max val acc: 362_epoch_0.9778393507003784 
+Min train loss : 362_epoch_0.059876974672079086
+Min val loss: 286_epoch_0.09904546290636063
+test acrr  0.9712121486663818
+test loss  0.09550454467535019  
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max train acc : 376_epoch_0.9489583373069763
+Max val acc: 376_epoch_0.9542302489280701 
+Min train loss : 398_epoch_0.14183901250362396
+Min val loss: 391_epoch_0.149362251162529 
+42/42 [==============================] - 0s 3ms/step - loss: 0.1642 - sparse_categorical_accuracy: 0.9356
+test acrr  0.935606062412262
+test loss  0.16418565809726715 
+0.9542302489280701 0.149362251162529 0.935606062412262 0.16418565809726715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 396_epoch_0.934374988079071
+Max val acc: 396_epoch_0.9403606057167053 
+Min train loss : 374_epoch_0.1688062846660614
+Min val loss: 326_epoch_0.1771385669708252 
+42/42 [==============================] - 0s 4ms/step - loss: 0.2001 - sparse_categorical_accuracy: 0.9121
+test acrr  0.9121212363243103
+test loss  0.20008480548858643 
+0.9403606057167053 0.1771385669708252 0.9121212363243103 0.20008480548858643 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 292_epoch_0.9819444417953491
+Max val acc: 292_epoch_0.9778085947036743 
+Min train loss : 371_epoch_0.05205930024385452
+Min val loss: 276_epoch_0.08357030153274536 
+42/42 [==============================] - 0s 3ms/step - loss: 0.0960 - sparse_categorical_accuracy: 0.9720
+test acrr  0.971969723701477
+test loss  0.09599041193723679 
+0.9778085947036743 0.08357030153274536 0.971969723701477 0.09599041193723679 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 376_epoch_0.9232639074325562
+Max val acc: 376_epoch_0.9264909625053406 
+Min train loss : 359_epoch_0.19783326983451843
+Min val loss: 382_epoch_0.21606189012527466 
+42/42 [==============================] - 0s 2ms/step - loss: 0.2180 - sparse_categorical_accuracy: 0.9121
+test acrr  0.9121212363243103
+test loss  0.21804247796535492 
+0.9264909625053406 0.21606189012527466 0.9121212363243103 0.21804247796535492 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Max train acc : 295_epoch_0.9808201193809509
+Max val acc: 295_epoch_0.9757365584373474 
+Min train loss : 392_epoch_0.05439112335443497
+Min val loss: 192_epoch_0.0875762403011322 
+42/42 [==============================] - 0s 2ms/step - loss: 0.0894 - sparse_categorical_accuracy: 0.9758
+test acrr  0.9757575988769531
+test loss  0.089350625872612 
+0.9757365584373474 0.0875762403011322 0.9757575988769531 0.089350625872612 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +518,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,6 +572,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,13 +611,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>802860</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -510,13 +672,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>24925</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>126950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1780904</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>831164</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>139650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -571,14 +733,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>26951</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>88348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1787296</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>14703</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>837556</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>14702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -615,13 +777,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>315851</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>162394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1803405</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>654883</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>132523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -659,13 +821,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>265043</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>44175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1784219</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635697</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>210141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -703,13 +865,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22086</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>209826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1771926</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>822186</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>222526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -764,13 +926,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>77304</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>121478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1827144</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>877404</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>134178</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -825,13 +987,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>220870</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>187739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1606275</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457753</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>200439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -886,13 +1048,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>298173</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>44174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1676951</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>528429</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>56874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -947,13 +1109,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>198782</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>110436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1685787</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>537265</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>123136</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1008,13 +1170,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>353391</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>143566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1586396</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>437874</xdr:colOff>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>156266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1067,23 +1229,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22086</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1038087</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>176696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1771926</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>886792</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>189396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16">
+        <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EE3524-2D71-0FC5-DAA6-0CC664A7268A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4B996A-2AB7-EA2B-1A20-0DAC69872AD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1106,8 +1268,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="386521" y="21578957"/>
-          <a:ext cx="10695057" cy="6042439"/>
+          <a:off x="11297478" y="23555739"/>
+          <a:ext cx="10704444" cy="6042439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1128,23 +1290,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>44174</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>132523</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1159565</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1794014</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>145222</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>58531</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>112090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17">
+        <xdr:cNvPr id="22" name="그림 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129A93FE-3705-32E5-BCE1-1A8D9403ED66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F93D8A-3421-725C-7A13-A00DBAF612D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,8 +1329,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="408609" y="22583914"/>
-          <a:ext cx="10695057" cy="6042439"/>
+          <a:off x="11418956" y="20695478"/>
+          <a:ext cx="10704444" cy="6042439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1189,23 +1351,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11044</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>143566</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1336261</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>176696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1770271</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>156265</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>235227</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>189396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="그림 18">
+        <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A98B5B-65A3-F6D0-F1E3-95ACEE58430A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBA38AD-2E4F-BFBC-50E7-B366D8DF6ACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,8 +1390,662 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="375479" y="23776609"/>
+          <a:off x="11595652" y="19712609"/>
           <a:ext cx="10704444" cy="6042439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1347304</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>220870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>195469</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BD90EA-0A19-772E-0B9E-6404BD81E08B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11805478" y="21578957"/>
+          <a:ext cx="10653643" cy="6042439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1203739</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>22086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>193261</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>34786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B0DBEE-4F68-7AA3-DBB5-2DF1CB94F44D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11661913" y="32478869"/>
+          <a:ext cx="10795000" cy="6042439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1402521</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285474</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>211482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7B91C3-00CC-0708-924A-F0C9DF308BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11860695" y="34223739"/>
+          <a:ext cx="10688431" cy="6042439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>183614</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>16099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>443735</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>126188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A32B8D-20C9-2B96-6552-040301319457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="183614" y="29425015"/>
+          <a:ext cx="10710844" cy="5848040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>306022</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>214216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>549363</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>1137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7655C5FC-EA73-EE4C-BAD4-998FDD236669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="306022" y="30082168"/>
+          <a:ext cx="10694064" cy="5980169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1193800</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69ABE744-3589-C9E0-D3B0-68BD7FC47995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11671300" y="34899600"/>
+          <a:ext cx="11163300" cy="5969000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA995A64-E7C0-02F1-6578-FA5B68F05782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23266400" y="23469600"/>
+          <a:ext cx="10566400" cy="5956300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243A1597-75F2-B6E7-4BB8-A7EED30D1F3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23037800" y="24663400"/>
+          <a:ext cx="10718800" cy="5956300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D697AC-4A1D-E902-BA0B-5D09FEBAD76C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22999700" y="25438100"/>
+          <a:ext cx="10718800" cy="5956300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3D7570-8963-2B27-D2CF-434821BE182C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23025100" y="26428700"/>
+          <a:ext cx="10718800" cy="5956300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DE9987-8C40-4883-F7DE-1AAAD3420070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23101300" y="28181300"/>
+          <a:ext cx="10566400" cy="5956300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1614,936 +2430,1400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4797183C-1BE6-6447-9C19-F40FD12808FC}">
-  <dimension ref="B1:Q44"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="39.42578125" customWidth="1"/>
+    <col min="13" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:5">
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
+    <row r="17" spans="1:18">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="B18" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="G18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" t="s">
-        <v>38</v>
+      <c r="K18" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" t="s">
         <v>9</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>10</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>11</v>
       </c>
-      <c r="O18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" t="s">
-        <v>36</v>
-      </c>
       <c r="Q18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="28" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="R18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="28" customHeight="1">
+      <c r="A19">
+        <v>400</v>
+      </c>
       <c r="B19" s="4">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="4">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E19" s="4">
         <v>64</v>
       </c>
       <c r="F19" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="51" customHeight="1">
+      <c r="L19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>0.97087377309799106</v>
+      </c>
+      <c r="N19">
+        <v>0.12598660588264399</v>
+      </c>
+      <c r="O19">
+        <v>0.96515148878097501</v>
+      </c>
+      <c r="P19">
+        <v>0.148661568760871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="73" customHeight="1">
+      <c r="A20">
+        <v>400</v>
+      </c>
       <c r="B20" s="4">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E20" s="4">
         <v>64</v>
       </c>
       <c r="F20" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="53" customHeight="1">
+      <c r="L20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>0.95006936788558904</v>
+      </c>
+      <c r="N20">
+        <v>0.191858366131782</v>
+      </c>
+      <c r="O20">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="P20">
+        <v>0.23419999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="64" customHeight="1">
+      <c r="A21">
+        <v>400</v>
+      </c>
       <c r="B21" s="4">
         <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="4">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E21" s="4">
         <v>64</v>
       </c>
       <c r="F21" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="N21">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.95220000000000005</v>
+      </c>
+      <c r="P21">
+        <v>0.1515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="55" customHeight="1">
+      <c r="A22">
+        <v>400</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" ht="49" customHeight="1">
-      <c r="B22" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="4">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E22" s="4">
         <v>64</v>
       </c>
       <c r="F22" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="72" customHeight="1">
+      <c r="L22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>0.9264</v>
+      </c>
+      <c r="N22">
+        <v>0.2001</v>
+      </c>
+      <c r="O22">
+        <v>0.9083</v>
+      </c>
+      <c r="P22">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="69" customHeight="1">
+      <c r="A23">
+        <v>400</v>
+      </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="4">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E23" s="4">
         <v>64</v>
       </c>
       <c r="F23" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="72" customHeight="1">
+      <c r="L23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="N23">
+        <v>0.2092</v>
+      </c>
+      <c r="O23">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="P23">
+        <v>0.24840000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="62" customHeight="1">
+      <c r="A24">
+        <v>400</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="4">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E24" s="4">
         <v>64</v>
       </c>
       <c r="F24" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="L24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24">
+        <v>0.9264</v>
+      </c>
+      <c r="N24">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.9083</v>
+      </c>
+      <c r="P24">
+        <v>0.21529999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="51" customHeight="1">
+      <c r="A25">
+        <v>400</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="56" customHeight="1">
-      <c r="B25" s="4">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="4">
-        <v>64</v>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E25" s="4">
         <v>64</v>
       </c>
       <c r="F25" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="60" customHeight="1">
+      <c r="L25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="N25">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="O25">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="P25">
+        <v>0.10539999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="58" customHeight="1">
+      <c r="A26">
+        <v>400</v>
+      </c>
       <c r="B26" s="4">
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="4">
-        <v>64</v>
+        <v>27</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E26" s="4">
         <v>64</v>
       </c>
       <c r="F26" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="44" customHeight="1">
+      <c r="L26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.193</v>
+      </c>
+      <c r="O26">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="P26">
+        <v>0.21390000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="66" customHeight="1">
+      <c r="A27">
+        <v>400</v>
+      </c>
       <c r="B27" s="4">
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="4">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E27" s="4">
         <v>64</v>
       </c>
       <c r="F27" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="58" customHeight="1">
+      <c r="L27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="N27">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="O27">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="P27">
+        <v>9.6199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="64" customHeight="1">
+      <c r="A28">
+        <v>400</v>
+      </c>
       <c r="B28" s="4">
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="4">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E28" s="4">
         <v>64</v>
       </c>
       <c r="F28" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="38" customHeight="1">
+      <c r="L28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="N28">
+        <v>0.2288</v>
+      </c>
+      <c r="O28">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="P28">
+        <v>0.22869999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="55" customHeight="1">
+      <c r="A29">
+        <v>800</v>
+      </c>
       <c r="B29" s="4">
         <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="4">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E29" s="4">
         <v>64</v>
       </c>
       <c r="F29" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="L29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.9597</v>
+      </c>
+      <c r="N29">
+        <v>0.1366</v>
+      </c>
+      <c r="O29">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="P29">
+        <v>0.12909999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="62" customHeight="1">
+      <c r="A30">
+        <v>2000</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="4">
+        <v>64</v>
+      </c>
+      <c r="F30" s="4">
+        <v>64</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="4">
         <v>0.2</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="40" customHeight="1">
-      <c r="B30" s="4">
-        <v>3</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="4">
-        <v>32</v>
-      </c>
-      <c r="E30" s="4">
-        <v>32</v>
-      </c>
-      <c r="F30" s="4">
-        <v>3</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="I30" s="4">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="L30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="N30">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="O30">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="P30">
+        <v>9.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="60" customHeight="1">
+      <c r="A31">
+        <v>400</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4">
+        <v>64</v>
+      </c>
+      <c r="F31" s="4">
+        <v>128</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="4">
         <v>0.2</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" ht="50" customHeight="1">
-      <c r="B31" s="4">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="I31" s="4">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="4">
-        <v>32</v>
-      </c>
-      <c r="F31" s="4">
-        <v>3</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="38" customHeight="1">
+      <c r="L31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31">
+        <v>0.9778</v>
+      </c>
+      <c r="N31">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="O31">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="P31">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="53" customHeight="1">
+      <c r="A32">
+        <v>400</v>
+      </c>
       <c r="B32" s="4">
         <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="4">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E32" s="4">
         <v>32</v>
       </c>
       <c r="F32" s="4">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="L32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M32">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N32">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="O32">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="P32">
+        <v>0.1018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="78" customHeight="1">
+      <c r="A33">
+        <v>400</v>
+      </c>
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="4">
+        <v>24</v>
+      </c>
+      <c r="F33" s="4">
+        <v>64</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="4">
         <v>0.2</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="I33" s="4">
+        <v>3</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="N33">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="O33">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="P33" s="3">
+        <v>9.3299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="72" customHeight="1">
+      <c r="A34">
+        <v>400</v>
+      </c>
+      <c r="B34" s="4">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="4">
+        <v>64</v>
+      </c>
+      <c r="F34" s="4">
+        <v>32</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="4">
-        <v>3</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="H34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I34" s="4">
+        <v>3</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="N34">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="O34">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0.10059999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="94" customHeight="1">
+      <c r="A35">
+        <v>400</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="4">
+        <v>32</v>
+      </c>
+      <c r="F35" s="4">
+        <v>32</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="4">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" ht="84" customHeight="1">
+      <c r="A36">
+        <v>400</v>
+      </c>
+      <c r="B36" s="4">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="4">
+        <v>32</v>
+      </c>
+      <c r="F36" s="4">
+        <v>24</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>3</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M36">
+        <v>97.77</v>
+      </c>
+      <c r="N36">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O36">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="P36" s="8">
+        <v>9.5600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="85" customHeight="1">
+      <c r="A37">
+        <v>400</v>
+      </c>
+      <c r="B37" s="4">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="4">
+        <v>24</v>
+      </c>
+      <c r="F37" s="4">
+        <v>32</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I37" s="4">
+        <v>3</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0.9778</v>
+      </c>
+      <c r="N37">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="O37">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="P37" s="6">
+        <v>9.4200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="47" customHeight="1">
+      <c r="A38">
+        <v>400</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4">
+        <v>32</v>
+      </c>
+      <c r="F38" s="4">
+        <v>32</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="4">
-        <v>22</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="H38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>3</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="77" customHeight="1">
+      <c r="A39">
+        <v>400</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="4">
         <v>32</v>
       </c>
-      <c r="F33" s="4">
-        <v>3</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="F39" s="4">
+        <v>32</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>3</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="4">
+      <c r="L39" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="59" customHeight="1">
+      <c r="A40">
+        <v>400</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4">
+        <v>32</v>
+      </c>
+      <c r="F40" s="4">
+        <v>32</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="4">
-        <v>3</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4">
-        <v>3</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="I40" s="4">
+        <v>2</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" s="4">
+      <c r="L40" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="68" customHeight="1">
+      <c r="A41">
+        <v>400</v>
+      </c>
+      <c r="B41" s="4">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="4">
+        <v>32</v>
+      </c>
+      <c r="F41" s="4">
+        <v>32</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="4">
-        <v>3</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="I41" s="4">
+        <v>4</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="47" customHeight="1">
+      <c r="A42">
+        <v>400</v>
+      </c>
+      <c r="B42" s="4">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="D42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="4">
+        <v>32</v>
+      </c>
+      <c r="F42" s="4">
+        <v>32</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I42" s="4">
+        <v>3</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="50" customHeight="1">
+      <c r="A43">
+        <v>400</v>
+      </c>
+      <c r="B43" s="4">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="4">
-        <v>2</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="4">
+        <v>32</v>
+      </c>
+      <c r="F43" s="4">
+        <v>32</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I43" s="4">
+        <v>3</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="19">
+      <c r="A44" s="10">
+        <v>400</v>
+      </c>
+      <c r="B44" s="7">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="7">
+        <v>32</v>
+      </c>
+      <c r="F44" s="7">
+        <v>32</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I44" s="7">
+        <v>3</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="4">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="L44" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="30" customHeight="1">
+      <c r="A45" s="10">
+        <v>400</v>
+      </c>
+      <c r="B45" s="7">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="4">
-        <v>4</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="D45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="7">
+        <v>32</v>
+      </c>
+      <c r="F45" s="7">
+        <v>32</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="I45" s="7">
+        <v>3</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="4">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="4">
-        <v>3</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="4">
-        <v>3</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="4">
-        <v>3</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="4">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="4">
-        <v>3</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="4">
-        <v>3</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="4">
-        <v>3</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="L45" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="10"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Ford/ford_cnn_condition.xlsx
+++ b/Ford/ford_cnn_condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285609BE-80F4-D345-A69D-416504EC32D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3991A7-0D50-8B4F-9D73-5C94A9E79541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{92CDF8F4-7FB9-8B44-9D52-3B14C4C12847}"/>
+    <workbookView xWindow="29400" yWindow="500" windowWidth="21600" windowHeight="37900" xr2:uid="{92CDF8F4-7FB9-8B44-9D52-3B14C4C12847}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="69">
   <si>
     <t>필터수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,13 +611,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>802860</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -672,13 +672,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>24925</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>126950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>831164</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>139650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -733,13 +733,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>26951</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>88348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>837556</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>14702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -777,13 +777,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>315851</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>162394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>654883</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>132523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -821,13 +821,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>265043</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>44175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>635697</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>210141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -865,13 +865,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22086</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>209826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>822186</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>222526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -926,13 +926,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>77304</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>121478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>877404</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>134178</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -987,13 +987,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>220870</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>187739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>457753</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>200439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1048,13 +1048,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>298173</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>44174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>528429</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>56874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1109,13 +1109,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>198782</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>110436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>537265</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>123136</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1170,13 +1170,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>353391</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>143566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>437874</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>156266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1231,13 +1231,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1038087</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>176696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>886792</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>189396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1292,13 +1292,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1159565</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>58531</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>112090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1353,13 +1353,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1336261</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>176696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>235227</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>189396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1414,13 +1414,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1347304</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>220870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>195469</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>1657</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1475,13 +1475,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1203739</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>22086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>193261</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>34786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1536,13 +1536,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1402521</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>285474</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>211482</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1597,13 +1597,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>183614</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>16099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>443735</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>126188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1641,13 +1641,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>306022</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>214216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>549363</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>1137</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1702,13 +1702,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1193800</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1763,13 +1763,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1824,13 +1824,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1885,13 +1885,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1946,13 +1946,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2007,13 +2007,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2430,10 +2430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4797183C-1BE6-6447-9C19-F40FD12808FC}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3813,17 +3813,52 @@
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="10"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="A46" s="10">
+        <v>400</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="7">
+        <v>32</v>
+      </c>
+      <c r="F46" s="7">
+        <v>32</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="I46" s="7">
+        <v>3</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="10"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Ford/ford_cnn_condition.xlsx
+++ b/Ford/ford_cnn_condition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3991A7-0D50-8B4F-9D73-5C94A9E79541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A7DD83-CA4E-BB4E-BCF9-A5005FDFC660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="500" windowWidth="21600" windowHeight="37900" xr2:uid="{92CDF8F4-7FB9-8B44-9D52-3B14C4C12847}"/>
   </bookViews>
@@ -2432,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4797183C-1BE6-6447-9C19-F40FD12808FC}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/Ford/ford_cnn_condition.xlsx
+++ b/Ford/ford_cnn_condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A7DD83-CA4E-BB4E-BCF9-A5005FDFC660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B4DD4-257E-874B-87A3-53E8DBEA8623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="21600" windowHeight="37900" xr2:uid="{92CDF8F4-7FB9-8B44-9D52-3B14C4C12847}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{92CDF8F4-7FB9-8B44-9D52-3B14C4C12847}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1421,7 +1421,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>195469</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>1657</xdr:rowOff>
+      <xdr:rowOff>1658</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1627,8 +1627,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="183614" y="29425015"/>
-          <a:ext cx="10710844" cy="5848040"/>
+          <a:off x="183614" y="32121153"/>
+          <a:ext cx="10775175" cy="5913852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1648,7 +1648,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>549363</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>1137</xdr:rowOff>
+      <xdr:rowOff>1136</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2432,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4797183C-1BE6-6447-9C19-F40FD12808FC}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="93" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3369,7 +3369,7 @@
         <v>0.10059999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="94" customHeight="1">
+    <row r="35" spans="1:16" ht="78" customHeight="1">
       <c r="A35">
         <v>400</v>
       </c>
@@ -3406,7 +3406,18 @@
       <c r="L35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P35" s="3"/>
+      <c r="M35">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="N35">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="O35">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="P35" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:16" ht="84" customHeight="1">
       <c r="A36">
@@ -3508,7 +3519,7 @@
         <v>9.4200000000000006E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="47" customHeight="1">
+    <row r="38" spans="1:16" ht="76" customHeight="1">
       <c r="A38">
         <v>400</v>
       </c>
@@ -3545,8 +3556,20 @@
       <c r="L38" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="77" customHeight="1">
+      <c r="M38">
+        <v>0.9778</v>
+      </c>
+      <c r="N38">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="O38">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="P38" s="8">
+        <v>9.0800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="76" customHeight="1">
       <c r="A39">
         <v>400</v>
       </c>
@@ -3583,8 +3606,20 @@
       <c r="L39" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="59" customHeight="1">
+      <c r="M39">
+        <v>0.9778</v>
+      </c>
+      <c r="N39">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O39">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="P39" s="8">
+        <v>9.5500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="67" customHeight="1">
       <c r="A40">
         <v>400</v>
       </c>
@@ -3621,8 +3656,20 @@
       <c r="L40" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="68" customHeight="1">
+      <c r="M40">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="N40">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="O40">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="P40" s="8">
+        <v>0.1641</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="62" customHeight="1">
       <c r="A41">
         <v>400</v>
       </c>
@@ -3659,8 +3706,20 @@
       <c r="L41" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="47" customHeight="1">
+      <c r="M41">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="N41">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="O41">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="P41" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="71" customHeight="1">
       <c r="A42">
         <v>400</v>
       </c>
@@ -3697,8 +3756,20 @@
       <c r="L42" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="50" customHeight="1">
+      <c r="M42">
+        <v>0.9778</v>
+      </c>
+      <c r="N42">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="O42">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="P42" s="8">
+        <v>9.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="63" customHeight="1">
       <c r="A43">
         <v>400</v>
       </c>
@@ -3734,6 +3805,18 @@
       </c>
       <c r="L43" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="M43">
+        <v>0.9264</v>
+      </c>
+      <c r="N43">
+        <v>0.216</v>
+      </c>
+      <c r="O43">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="P43" s="8">
+        <v>0.218</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="19">
@@ -3774,7 +3857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="30" customHeight="1">
+    <row r="45" spans="1:16" ht="51" customHeight="1">
       <c r="A45" s="10">
         <v>400</v>
       </c>
@@ -3810,6 +3893,18 @@
       </c>
       <c r="L45" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="M45">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="N45">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="O45">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="P45">
+        <v>8.9300000000000004E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16">

--- a/Ford/ford_cnn_condition.xlsx
+++ b/Ford/ford_cnn_condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B4DD4-257E-874B-87A3-53E8DBEA8623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF026E6-C3BB-424B-895C-E09781545DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{92CDF8F4-7FB9-8B44-9D52-3B14C4C12847}"/>
+    <workbookView xWindow="29400" yWindow="500" windowWidth="21600" windowHeight="37900" xr2:uid="{92CDF8F4-7FB9-8B44-9D52-3B14C4C12847}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,150 +37,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="69">
   <si>
     <t>필터수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>배치수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>활성함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>배치정규화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>데이터정규화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>val 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>optimizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>adam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Max val acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Min val loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>test acrr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>test loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>epoch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - 튀는 샘플 상위 20개, 10개, 5개 제거 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - s403열 이후만 학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - crr_490, 470, 495</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Conv레이어층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GlobalAveragePooling1D() 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Flatten() 사용시 지역적 특징을 추출하지 못하여 학습 안됨. 과적합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 기본 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2. 조건 확정 후 추가 테스트 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3. 조건 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>relu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>커널</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>swish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>softplus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LeakyReLU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Conv 다음 레이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>마지막 Dens2 레이어의 활성함수 : softmax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ** 레이어층, 필터수, 배치수는 교차 조합으로 여러가지 테스트를 해봤으나, 특별히 좋아지는 조건이 없어서 아래 조건 이외의 기록은 생략함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>과적합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>과소적합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 177_epoch_1.0
@@ -190,7 +190,7 @@
 42/42 [==============================] - 0s 4ms/step - loss: 0.1487 - sparse_categorical_accuracy: 0.9652
 test acrr  0.9651514887809753
 test loss  0.1486615687608719 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 383_epoch_0.9996528029441833
@@ -200,7 +200,7 @@
 42/42 [==============================] - 0s 4ms/step - loss: 0.2342 - sparse_categorical_accuracy: 0.9402
 test acrr  0.9401515126228333
 test loss  0.23422053456306458 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 395_epoch_0.9996528029441833
@@ -210,7 +210,7 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.1515 - sparse_categorical_accuracy: 0.9523
 test acrr  0.9522727131843567
 test loss  0.15152209997177124 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 379_epoch_0.941319465637207
@@ -220,7 +220,7 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.2485 - sparse_categorical_accuracy: 0.9068
 test acrr  0.9068182110786438
 test loss  0.2484739124774933 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 399_epoch_0.9541666507720947
@@ -230,22 +230,22 @@
 42/42 [==============================] - 0s 4ms/step - loss: 0.2161 - sparse_categorical_accuracy: 0.9083
 test acrr  0.9083333611488342
 test loss  0.21606984734535217 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4
 (drop0.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3
 (drop0.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4
 (drop0.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 395_epoch_0.9357638955116272
@@ -255,7 +255,7 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.2153 - sparse_categorical_accuracy: 0.9083
 test acrr  0.9083333611488342
 test loss  0.21532967686653137 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 398_epoch_0.988194465637207
@@ -265,7 +265,7 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.0962 - sparse_categorical_accuracy: 0.9720
 test acrr  0.971969723701477
 test loss  0.0962466150522232 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 391_epoch_0.9909722208976746
@@ -275,7 +275,7 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.1054 - sparse_categorical_accuracy: 0.9667
 test acrr  0.9666666388511658
 test loss  0.10542181879281998 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 391_epoch_0.9347222447395325
@@ -285,7 +285,7 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.2140 - sparse_categorical_accuracy: 0.9098
 test acrr  0.9098485112190247
 test loss  0.21397000551223755 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 397_epoch_0.9822916388511658
@@ -295,7 +295,7 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.1018 - sparse_categorical_accuracy: 0.9727
 test acrr  0.9727272987365723
 test loss  0.10184667259454727 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 377_epoch_0.9784722328186035
@@ -305,11 +305,11 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.0934 - sparse_categorical_accuracy: 0.9697
 test acrr  0.9696969985961914
 test loss  0.09339591860771179 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SGD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 398_epoch_0.9854166507720947
@@ -319,7 +319,7 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.1105 - sparse_categorical_accuracy: 0.9674
 test acrr  0.967424213886261
 test loss  0.1105249673128128 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 362_epoch_0.910069465637207
@@ -329,7 +329,7 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.2287 - sparse_categorical_accuracy: 0.9159
 test acrr  0.9159091114997864
 test loss  0.22870060801506042 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 781_epoch_0.956250011920929
@@ -339,7 +339,7 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.1291 - sparse_categorical_accuracy: 0.9583
 test acrr  0.9583333134651184
 test loss  0.1291147917509079 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 1973_epoch_0.9940972328186035
@@ -349,7 +349,7 @@
 42/42 [==============================] - 0s 3ms/step - loss: 0.0960 - sparse_categorical_accuracy: 0.9667
 test acrr  0.9666666388511658
 test loss  0.09599888324737549 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 369_epoch_0.981249988079071
@@ -360,15 +360,15 @@
 test acrr  0.9742424488067627
 test loss  0.09426118433475494 
 0.9778085947036743 0.08642600476741791 0.9742424488067627 0.09426118433475494 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>베스트기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 298_epoch_0.9785714149475098
@@ -379,7 +379,7 @@
 test acrr  0.9681817889213562
 test loss  0.09561493992805481 
 0.977798342704773 0.08513534814119339 0.9681817889213562 0.09561493992805481 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 326_epoch_0.9819444417953491
@@ -390,7 +390,7 @@
 test acrr  0.9704545736312866
 test loss  0.10064556449651718 
 0.9791955351829529 0.08741684257984161 0.9704545736312866 0.10064556449651718 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 393_epoch_0.980555534362793
@@ -401,7 +401,7 @@
 test acrr  0.971969723701477
 test loss  0.0910976380109787 
 0.9791955351829529 0.08161262422800064 0.971969723701477 0.0910976380109787 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 389_epoch_0.9809027910232544
@@ -412,7 +412,7 @@
 test acrr  0.9704545736312866
 test loss  0.09081384539604187 
 0.9778085947036743 0.08543970435857773 0.9704545736312866 0.09081384539604187 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 362_epoch_0.979938268661499
@@ -422,7 +422,7 @@
 test acrr  0.9712121486663818
 test loss  0.09550454467535019  
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Max train acc : 376_epoch_0.9489583373069763
@@ -433,7 +433,7 @@
 test acrr  0.935606062412262
 test loss  0.16418565809726715 
 0.9542302489280701 0.149362251162529 0.935606062412262 0.16418565809726715</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 396_epoch_0.934374988079071
@@ -444,7 +444,7 @@
 test acrr  0.9121212363243103
 test loss  0.20008480548858643 
 0.9403606057167053 0.1771385669708252 0.9121212363243103 0.20008480548858643 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 292_epoch_0.9819444417953491
@@ -455,7 +455,7 @@
 test acrr  0.971969723701477
 test loss  0.09599041193723679 
 0.9778085947036743 0.08357030153274536 0.971969723701477 0.09599041193723679 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 376_epoch_0.9232639074325562
@@ -466,11 +466,11 @@
 test acrr  0.9121212363243103
 test loss  0.21804247796535492 
 0.9264909625053406 0.21606189012527466 0.9121212363243103 0.21804247796535492 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>조건 확정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Max train acc : 295_epoch_0.9808201193809509
@@ -481,17 +481,26 @@
 test acrr  0.9757575988769531
 test loss  0.089350625872612 
 0.9757365584373474 0.0875762403011322 0.9757575988769531 0.089350625872612 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+    <numFmt numFmtId="181" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -502,6 +511,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -549,47 +566,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,13 +641,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>802860</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -672,13 +702,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>24925</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>126950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>831164</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>139650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -733,13 +763,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>26951</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>88348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>837556</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>14702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -777,13 +807,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>315851</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>162394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>654883</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>132523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -821,13 +851,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>265043</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>44175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>635697</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>210141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -865,13 +895,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22086</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>209826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>822186</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>222526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -926,13 +956,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>77304</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>121478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>877404</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>134178</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -987,13 +1017,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>220870</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>187739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>457753</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>200439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1048,13 +1078,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>298173</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>44174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>528429</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>56874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1109,13 +1139,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>198782</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>110436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>537265</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>123136</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1170,13 +1200,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>353391</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>143566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>437874</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>156266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1231,13 +1261,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1038087</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>176696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>886792</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285694</xdr:colOff>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>189396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1292,14 +1322,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1159565</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>58531</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>112090</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>291869</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>112091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1353,13 +1383,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1336261</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>176696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>235227</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>291869</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>189396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1414,14 +1444,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1347304</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>220870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>195469</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>1658</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>241068</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>1657</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1475,13 +1505,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1203739</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>22086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>193261</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>382425</xdr:colOff>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>34786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1536,13 +1566,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1402521</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285474</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>275856</xdr:colOff>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>211482</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1597,13 +1627,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>183614</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>16099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>443735</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>126188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1641,14 +1671,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>306022</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>214216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>549363</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>1136</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>1137</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1702,13 +1732,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1193800</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>719803</xdr:colOff>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1762,15 +1792,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>109247</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>109247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>198147</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>121947</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1800,8 +1830,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="23266400" y="23469600"/>
-          <a:ext cx="10566400" cy="5956300"/>
+          <a:off x="20142473" y="15403871"/>
+          <a:ext cx="10603954" cy="6048614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1823,15 +1853,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>942394</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>231194</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>155268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1861,8 +1891,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="23037800" y="24663400"/>
-          <a:ext cx="10718800" cy="5956300"/>
+          <a:off x="20019706" y="15901493"/>
+          <a:ext cx="10759768" cy="6048614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1885,13 +1915,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1946,14 +1976,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2007,13 +2037,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2046,6 +2076,189 @@
         <a:xfrm>
           <a:off x="23101300" y="28181300"/>
           <a:ext cx="10566400" cy="5956300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E3B3A4-3931-6D0E-12AA-19B5100BADA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="31394400" y="16941800"/>
+          <a:ext cx="10820400" cy="5956300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>95591</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>177527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>336891</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>190227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C26275C-5329-E0B0-0D98-33F17CA4703B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="31599785" y="18927097"/>
+          <a:ext cx="10756353" cy="6048614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>136559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>149259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1CA21B-8DEA-65E1-721C-087AF5354A46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="31504194" y="20046882"/>
+          <a:ext cx="10756353" cy="6048614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2430,22 +2643,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4797183C-1BE6-6447-9C19-F40FD12808FC}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="93" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="39.42578125" customWidth="1"/>
-    <col min="13" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2489,7 +2704,7 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2509,1454 +2724,1776 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:18">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:18" ht="20">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="28" customHeight="1">
-      <c r="A19">
+    <row r="19" spans="1:18" ht="30" customHeight="1">
+      <c r="A19" s="3">
         <v>400</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>64</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>64</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0.2</v>
       </c>
-      <c r="I19" s="4">
-        <v>3</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="8">
         <v>0.97087377309799106</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="10">
         <v>0.12598660588264399</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="8">
         <v>0.96515148878097501</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="10">
         <v>0.148661568760871</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="73" customHeight="1">
-      <c r="A20">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="30" customHeight="1">
+      <c r="A20" s="3">
         <v>400</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>64</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>64</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.2</v>
       </c>
-      <c r="I20" s="4">
-        <v>3</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="8">
         <v>0.95006936788558904</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="10">
         <v>0.191858366131782</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="8">
         <v>0.94010000000000005</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="10">
         <v>0.23419999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="64" customHeight="1">
-      <c r="A21">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" ht="30" customHeight="1">
+      <c r="A21" s="3">
         <v>400</v>
       </c>
-      <c r="B21" s="4">
-        <v>3</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>64</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>64</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.2</v>
       </c>
-      <c r="I21" s="4">
-        <v>3</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="8">
         <v>0.96530000000000005</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="10">
         <v>0.12809999999999999</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="8">
         <v>0.95220000000000005</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="10">
         <v>0.1515</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="55" customHeight="1">
-      <c r="A22">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" ht="30" customHeight="1">
+      <c r="A22" s="3">
         <v>400</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>64</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>64</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.2</v>
       </c>
-      <c r="I22" s="4">
-        <v>3</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="8">
         <v>0.9264</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="10">
         <v>0.2001</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="8">
         <v>0.9083</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="10">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="69" customHeight="1">
-      <c r="A23">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" ht="30" customHeight="1">
+      <c r="A23" s="3">
         <v>400</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>64</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>64</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.2</v>
       </c>
-      <c r="I23" s="4">
-        <v>3</v>
-      </c>
-      <c r="J23" s="4" t="s">
+      <c r="I23" s="3">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="8">
         <v>0.91669999999999996</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="10">
         <v>0.2092</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="8">
         <v>0.90680000000000005</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="10">
         <v>0.24840000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="62" customHeight="1">
-      <c r="A24">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" ht="30" customHeight="1">
+      <c r="A24" s="3">
         <v>400</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>64</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>64</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>0.2</v>
       </c>
-      <c r="I24" s="4">
-        <v>3</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="I24" s="3">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="8">
         <v>0.9264</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="10">
         <v>0.20200000000000001</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="8">
         <v>0.9083</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="10">
         <v>0.21529999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="51" customHeight="1">
-      <c r="A25">
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="30" customHeight="1">
+      <c r="A25" s="3">
         <v>400</v>
       </c>
-      <c r="B25" s="4">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>64</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>64</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>0.2</v>
       </c>
-      <c r="I25" s="4">
-        <v>3</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="I25" s="3">
+        <v>3</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="8">
         <v>0.97640000000000005</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="10">
         <v>0.91579999999999995</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="8">
         <v>0.96660000000000001</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="10">
         <v>0.10539999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="58" customHeight="1">
-      <c r="A26">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" ht="30" customHeight="1">
+      <c r="A26" s="3">
         <v>400</v>
       </c>
-      <c r="B26" s="4">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>64</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>64</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>0.2</v>
       </c>
-      <c r="I26" s="4">
-        <v>3</v>
-      </c>
-      <c r="J26" s="4" t="s">
+      <c r="I26" s="3">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="8">
         <v>0.93340000000000001</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="10">
         <v>0.193</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="8">
         <v>0.90980000000000005</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="10">
         <v>0.21390000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="66" customHeight="1">
-      <c r="A27">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" ht="30" customHeight="1">
+      <c r="A27" s="3">
         <v>400</v>
       </c>
-      <c r="B27" s="4">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>64</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>64</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>0.2</v>
       </c>
-      <c r="I27" s="4">
-        <v>3</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="I27" s="3">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="8">
         <v>0.97360000000000002</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="10">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="8">
         <v>0.97189999999999999</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="10">
         <v>9.6199999999999994E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="64" customHeight="1">
-      <c r="A28">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" ht="30" customHeight="1">
+      <c r="A28" s="3">
         <v>400</v>
       </c>
-      <c r="B28" s="4">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>64</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>64</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>0.2</v>
       </c>
-      <c r="I28" s="4">
-        <v>3</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="I28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="8">
         <v>0.92779999999999996</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="10">
         <v>0.2288</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="8">
         <v>0.91590000000000005</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="10">
         <v>0.22869999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="55" customHeight="1">
-      <c r="A29">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" ht="30" customHeight="1">
+      <c r="A29" s="3">
         <v>800</v>
       </c>
-      <c r="B29" s="4">
-        <v>3</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>64</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>64</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>0.2</v>
       </c>
-      <c r="I29" s="4">
-        <v>3</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="I29" s="3">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="8">
         <v>0.9597</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="10">
         <v>0.1366</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="8">
         <v>0.95830000000000004</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="10">
         <v>0.12909999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="62" customHeight="1">
-      <c r="A30">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" ht="30" customHeight="1">
+      <c r="A30" s="3">
         <v>2000</v>
       </c>
-      <c r="B30" s="4">
-        <v>3</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>64</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>64</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>0.2</v>
       </c>
-      <c r="I30" s="4">
-        <v>3</v>
-      </c>
-      <c r="J30" s="4" t="s">
+      <c r="I30" s="3">
+        <v>3</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="8">
         <v>0.98050000000000004</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="10">
         <v>0.90480000000000005</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="8">
         <v>0.96660000000000001</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="10">
         <v>9.5899999999999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="60" customHeight="1">
-      <c r="A31">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" ht="30" customHeight="1">
+      <c r="A31" s="3">
         <v>400</v>
       </c>
-      <c r="B31" s="4">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>64</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>128</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>0.2</v>
       </c>
-      <c r="I31" s="4">
-        <v>3</v>
-      </c>
-      <c r="J31" s="4" t="s">
+      <c r="I31" s="3">
+        <v>3</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="8">
         <v>0.9778</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="10">
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="8">
         <v>0.96740000000000004</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="10">
         <v>0.1105</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="53" customHeight="1">
-      <c r="A32">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" ht="30" customHeight="1">
+      <c r="A32" s="3">
         <v>400</v>
       </c>
-      <c r="B32" s="4">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>32</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>64</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>0.2</v>
       </c>
-      <c r="I32" s="4">
-        <v>3</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="I32" s="3">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="8">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="10">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="8">
         <v>0.97270000000000001</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="10">
         <v>0.1018</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="78" customHeight="1">
-      <c r="A33">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" ht="30" customHeight="1">
+      <c r="A33" s="3">
         <v>400</v>
       </c>
-      <c r="B33" s="4">
-        <v>3</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>24</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>64</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>0.2</v>
       </c>
-      <c r="I33" s="4">
-        <v>3</v>
-      </c>
-      <c r="J33" s="4" t="s">
+      <c r="I33" s="3">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="8">
         <v>0.97219999999999995</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="10">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="8">
         <v>0.96960000000000002</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="11">
         <v>9.3299999999999994E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="72" customHeight="1">
-      <c r="A34">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" ht="30" customHeight="1">
+      <c r="A34" s="3">
         <v>400</v>
       </c>
-      <c r="B34" s="4">
-        <v>3</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>64</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>32</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <v>0.2</v>
       </c>
-      <c r="I34" s="4">
-        <v>3</v>
-      </c>
-      <c r="J34" s="4" t="s">
+      <c r="I34" s="3">
+        <v>3</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="8">
         <v>0.97909999999999997</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="10">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="8">
         <v>0.97040000000000004</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="12">
         <v>0.10059999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="78" customHeight="1">
-      <c r="A35">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" ht="30" customHeight="1">
+      <c r="A35" s="3">
         <v>400</v>
       </c>
-      <c r="B35" s="4">
-        <v>3</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>32</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>32</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>0.2</v>
       </c>
-      <c r="I35" s="4">
-        <v>3</v>
-      </c>
-      <c r="J35" s="4" t="s">
+      <c r="I35" s="3">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="8">
         <v>0.97909999999999997</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="10">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="8">
         <v>0.97189999999999999</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="12">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="84" customHeight="1">
-      <c r="A36">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" ht="30" customHeight="1">
+      <c r="A36" s="3">
         <v>400</v>
       </c>
-      <c r="B36" s="4">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>32</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>24</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>0.2</v>
       </c>
-      <c r="I36" s="4">
-        <v>3</v>
-      </c>
-      <c r="J36" s="4" t="s">
+      <c r="I36" s="3">
+        <v>3</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="8">
         <v>97.77</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="10">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="8">
         <v>0.96809999999999996</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="12">
         <v>9.5600000000000004E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="85" customHeight="1">
-      <c r="A37">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" ht="30" customHeight="1">
+      <c r="A37" s="3">
         <v>400</v>
       </c>
-      <c r="B37" s="4">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>24</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>32</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>0.2</v>
       </c>
-      <c r="I37" s="4">
-        <v>3</v>
-      </c>
-      <c r="J37" s="4" t="s">
+      <c r="I37" s="3">
+        <v>3</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="9">
         <v>0.9778</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="10">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="8">
         <v>0.97419999999999995</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="13">
         <v>9.4200000000000006E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="76" customHeight="1">
-      <c r="A38">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" ht="30" customHeight="1">
+      <c r="A38" s="3">
         <v>400</v>
       </c>
-      <c r="B38" s="4">
-        <v>3</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>32</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>32</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <v>0.2</v>
       </c>
-      <c r="I38" s="4">
-        <v>3</v>
-      </c>
-      <c r="J38" s="4" t="s">
+      <c r="I38" s="3">
+        <v>3</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="8">
         <v>0.9778</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="10">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="8">
         <v>0.97040000000000004</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="12">
         <v>9.0800000000000006E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="76" customHeight="1">
-      <c r="A39">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" ht="30" customHeight="1">
+      <c r="A39" s="3">
         <v>400</v>
       </c>
-      <c r="B39" s="4">
-        <v>3</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>32</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>32</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="5">
         <v>0.1</v>
       </c>
-      <c r="I39" s="4">
-        <v>3</v>
-      </c>
-      <c r="J39" s="4" t="s">
+      <c r="I39" s="3">
+        <v>3</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="8">
         <v>0.9778</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="10">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="8">
         <v>0.97119999999999995</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="12">
         <v>9.5500000000000002E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="67" customHeight="1">
-      <c r="A40">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" ht="30" customHeight="1">
+      <c r="A40" s="3">
         <v>400</v>
       </c>
-      <c r="B40" s="4">
-        <v>3</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="3">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>32</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>32</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <v>0.2</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>2</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="8">
         <v>0.95430000000000004</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="10">
         <v>0.14929999999999999</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="8">
         <v>0.93559999999999999</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="12">
         <v>0.1641</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="62" customHeight="1">
-      <c r="A41">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" ht="30" customHeight="1">
+      <c r="A41" s="3">
         <v>400</v>
       </c>
-      <c r="B41" s="4">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="3">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>32</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>32</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <v>0.2</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>4</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="8">
         <v>0.94030000000000002</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="10">
         <v>0.17710000000000001</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="8">
         <v>0.91210000000000002</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="71" customHeight="1">
-      <c r="A42">
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" ht="30" customHeight="1">
+      <c r="A42" s="3">
         <v>400</v>
       </c>
-      <c r="B42" s="4">
-        <v>3</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>32</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>32</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="3">
         <v>0.2</v>
       </c>
-      <c r="I42" s="4">
-        <v>3</v>
-      </c>
-      <c r="J42" s="4" t="s">
+      <c r="I42" s="3">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="8">
         <v>0.9778</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="10">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="8">
         <v>0.97189999999999999</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="12">
         <v>9.5899999999999999E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="63" customHeight="1">
-      <c r="A43">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" ht="30" customHeight="1">
+      <c r="A43" s="3">
         <v>400</v>
       </c>
-      <c r="B43" s="4">
-        <v>3</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="3">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>32</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>32</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <v>0.2</v>
       </c>
-      <c r="I43" s="4">
-        <v>3</v>
-      </c>
-      <c r="J43" s="4" t="s">
+      <c r="I43" s="3">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="8">
         <v>0.9264</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="10">
         <v>0.216</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="8">
         <v>0.91210000000000002</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="12">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="19">
-      <c r="A44" s="10">
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" ht="30" customHeight="1">
+      <c r="A44" s="6">
         <v>400</v>
       </c>
-      <c r="B44" s="7">
-        <v>3</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="6">
+        <v>3</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>32</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>32</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <v>0.2</v>
       </c>
-      <c r="I44" s="7">
-        <v>3</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="I44" s="6">
+        <v>3</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="51" customHeight="1">
-      <c r="A45" s="10">
+      <c r="M44" s="8"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" ht="30" customHeight="1">
+      <c r="A45" s="6">
         <v>400</v>
       </c>
-      <c r="B45" s="7">
-        <v>3</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="6">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>32</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>32</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <v>0.16</v>
       </c>
-      <c r="I45" s="7">
-        <v>3</v>
-      </c>
-      <c r="J45" s="7" t="s">
+      <c r="I45" s="6">
+        <v>3</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="8">
         <v>0.97570000000000001</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="10">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="8">
         <v>0.97570000000000001</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="10">
         <v>8.9300000000000004E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="10">
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" ht="30" customHeight="1">
+      <c r="A46" s="6">
         <v>400</v>
       </c>
-      <c r="B46" s="7">
-        <v>3</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="6">
+        <v>3</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>32</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>32</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <v>0.17</v>
       </c>
-      <c r="I46" s="7">
-        <v>3</v>
-      </c>
-      <c r="J46" s="7" t="s">
+      <c r="I46" s="6">
+        <v>3</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="10"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" ht="30" customHeight="1">
+      <c r="A47" s="6">
+        <v>400</v>
+      </c>
+      <c r="B47" s="6">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="6">
+        <v>32</v>
+      </c>
+      <c r="F47" s="6">
+        <v>8</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="I47" s="6">
+        <v>3</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="8">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="N47" s="10">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="P47" s="10">
+        <v>8.9200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="30" customHeight="1">
+      <c r="A48" s="6">
+        <v>400</v>
+      </c>
+      <c r="B48" s="6">
+        <v>3</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="6">
+        <v>32</v>
+      </c>
+      <c r="F48" s="6">
+        <v>16</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="I48" s="6">
+        <v>3</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="8">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="N48" s="10">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="O48" s="8">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="P48" s="10">
+        <v>9.6199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="30" customHeight="1">
+      <c r="A49" s="7">
+        <v>400</v>
+      </c>
+      <c r="B49" s="7">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="7">
+        <v>32</v>
+      </c>
+      <c r="F49" s="7">
+        <v>16</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="I49" s="7">
+        <v>3</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="8">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="N49" s="10">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="P49" s="10">
+        <v>7.9899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="30" customHeight="1">
+      <c r="A50" s="7">
+        <v>400</v>
+      </c>
+      <c r="B50" s="7">
+        <v>3</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="7">
+        <v>32</v>
+      </c>
+      <c r="F50" s="7">
+        <v>20</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="I50" s="7">
+        <v>3</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="8">
+        <v>0.9768</v>
+      </c>
+      <c r="N50" s="10">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="P50" s="10">
+        <v>9.2600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="30" customHeight="1">
+      <c r="A51" s="7">
+        <v>400</v>
+      </c>
+      <c r="B51" s="7">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="7">
+        <v>32</v>
+      </c>
+      <c r="F51" s="7">
+        <v>28</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I51" s="7">
+        <v>3</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="N51" s="10">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="P51" s="10">
+        <v>9.2700000000000005E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="30" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="10"/>
+    </row>
+    <row r="53" spans="1:16" ht="30" customHeight="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3972,7 +4509,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Ford/ford_cnn_condition.xlsx
+++ b/Ford/ford_cnn_condition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF026E6-C3BB-424B-895C-E09781545DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1746891-59C0-6C4E-82A1-AC25A4B229A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="500" windowWidth="21600" windowHeight="37900" xr2:uid="{92CDF8F4-7FB9-8B44-9D52-3B14C4C12847}"/>
   </bookViews>
@@ -2645,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4797183C-1BE6-6447-9C19-F40FD12808FC}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/Ford/ford_cnn_condition.xlsx
+++ b/Ford/ford_cnn_condition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1746891-59C0-6C4E-82A1-AC25A4B229A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9DDD7-DA71-8B42-9DAE-DC4C435205C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="500" windowWidth="21600" windowHeight="37900" xr2:uid="{92CDF8F4-7FB9-8B44-9D52-3B14C4C12847}"/>
   </bookViews>
@@ -2645,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4797183C-1BE6-6447-9C19-F40FD12808FC}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/Ford/ford_cnn_condition.xlsx
+++ b/Ford/ford_cnn_condition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9DDD7-DA71-8B42-9DAE-DC4C435205C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBC0B94-79C7-3741-A500-EA12E53F379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="500" windowWidth="21600" windowHeight="37900" xr2:uid="{92CDF8F4-7FB9-8B44-9D52-3B14C4C12847}"/>
   </bookViews>
@@ -2646,7 +2646,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
